--- a/Calculo configuracion.xlsx
+++ b/Calculo configuracion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e18b08edbf20c826/Nicole 2024/Inteligencia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B671B919-83CE-4E18-BCB2-0FB65EED1A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{B671B919-83CE-4E18-BCB2-0FB65EED1A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74AD6B18-7B25-4B6B-899B-5C54DC4D231A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FA482A3D-2827-409C-A351-EFEBEDF03EA9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Contenedores</t>
   </si>
@@ -57,6 +57,18 @@
   </si>
   <si>
     <t>VM4</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Tercera Iteración</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primera Iteración </t>
+  </si>
+  <si>
+    <t>Segunga Iteración</t>
   </si>
 </sst>
 </file>
@@ -80,15 +92,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -96,13 +132,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,141 +494,292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A966462-C5AF-46A9-BC03-7E203CE4B9FD}">
-  <dimension ref="C5:I16"/>
+  <dimension ref="C5:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C5">
+    <row r="5" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C5" s="6">
         <v>1</v>
       </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="6">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6">
         <v>3</v>
       </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5">
+      <c r="F5" s="6">
+        <v>4</v>
+      </c>
+      <c r="G5" s="6">
         <v>5</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="6">
         <v>6</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C6">
+    <row r="6" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="E6" s="7">
+        <v>2</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2</v>
+      </c>
+      <c r="G6" s="7">
+        <v>4</v>
+      </c>
+      <c r="H6" s="7">
+        <v>4</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6" t="s">
+    </row>
+    <row r="7" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C7" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
+      <c r="D7" s="6">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2</v>
+      </c>
+      <c r="F7" s="6">
+        <v>2</v>
+      </c>
+      <c r="G7" s="6">
         <v>3</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="6">
         <v>3</v>
       </c>
-      <c r="I7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I7" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
       <c r="D10">
         <v>10</v>
       </c>
-      <c r="H10">
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="3">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3">
+        <v>20</v>
+      </c>
+      <c r="M10" s="4">
+        <v>2</v>
+      </c>
+      <c r="N10" s="4">
+        <v>110</v>
+      </c>
+      <c r="P10" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11">
         <v>110</v>
       </c>
-      <c r="H11">
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="3">
+        <v>2</v>
+      </c>
+      <c r="K11" s="3">
+        <v>110</v>
+      </c>
+      <c r="M11" s="4">
+        <v>1</v>
+      </c>
+      <c r="N11" s="4">
+        <v>10</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12">
         <v>30</v>
       </c>
-      <c r="H12">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>110</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2</v>
+      </c>
+      <c r="K12" s="3">
+        <v>110</v>
+      </c>
+      <c r="M12" s="4">
+        <v>2</v>
+      </c>
+      <c r="N12" s="4">
+        <v>110</v>
+      </c>
+      <c r="P12" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>6</v>
       </c>
       <c r="D13">
         <v>20</v>
       </c>
-      <c r="H13">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="H14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="H15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G13" s="2">
+        <v>2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>110</v>
+      </c>
+      <c r="J13" s="3">
+        <v>2</v>
+      </c>
+      <c r="K13" s="3">
+        <v>110</v>
+      </c>
+      <c r="M13" s="4">
+        <v>2</v>
+      </c>
+      <c r="N13" s="4">
+        <v>110</v>
+      </c>
+      <c r="P13" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="G14" s="2">
+        <v>4</v>
+      </c>
+      <c r="H14" s="2">
+        <v>20</v>
+      </c>
+      <c r="J14" s="3">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>20</v>
+      </c>
+      <c r="M14" s="4">
+        <v>4</v>
+      </c>
+      <c r="N14" s="4">
+        <v>20</v>
+      </c>
+      <c r="P14" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="G15" s="2">
+        <v>4</v>
+      </c>
+      <c r="H15" s="2">
+        <v>20</v>
+      </c>
+      <c r="J15" s="3">
+        <v>4</v>
+      </c>
+      <c r="K15" s="3">
+        <v>20</v>
+      </c>
+      <c r="M15" s="4">
+        <v>4</v>
+      </c>
+      <c r="N15" s="4">
+        <v>20</v>
+      </c>
+      <c r="P15" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="3:17" x14ac:dyDescent="0.25">
       <c r="H16" s="1">
         <f>SUM(H10:H15)</f>
         <v>280</v>
+      </c>
+      <c r="K16" s="1">
+        <f>SUM(K10:K15)</f>
+        <v>390</v>
+      </c>
+      <c r="N16" s="1">
+        <f>SUM(N10:N15)</f>
+        <v>380</v>
+      </c>
+      <c r="Q16" s="1">
+        <f>SUM(Q10:Q15)</f>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
